--- a/Code/Results/Cases/Case_0_152/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_152/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.00715444963872</v>
+        <v>1.039482991695807</v>
       </c>
       <c r="D2">
-        <v>1.021835152894607</v>
+        <v>1.049141092787546</v>
       </c>
       <c r="E2">
-        <v>1.012587937207944</v>
+        <v>1.038006646078971</v>
       </c>
       <c r="F2">
-        <v>1.027978837070858</v>
+        <v>1.056966896595004</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051645890477511</v>
+        <v>1.038537309730384</v>
       </c>
       <c r="J2">
-        <v>1.029123257964637</v>
+        <v>1.044574764889604</v>
       </c>
       <c r="K2">
-        <v>1.032998445108144</v>
+        <v>1.051898978263679</v>
       </c>
       <c r="L2">
-        <v>1.023874644008968</v>
+        <v>1.040795908726703</v>
       </c>
       <c r="M2">
-        <v>1.039061672165196</v>
+        <v>1.059703157406805</v>
       </c>
       <c r="N2">
-        <v>1.030584731033035</v>
+        <v>1.046058180870148</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.012204453487602</v>
+        <v>1.040533216866516</v>
       </c>
       <c r="D3">
-        <v>1.026385494118966</v>
+        <v>1.050136796849661</v>
       </c>
       <c r="E3">
-        <v>1.016660741075673</v>
+        <v>1.038901613526406</v>
       </c>
       <c r="F3">
-        <v>1.032881119246561</v>
+        <v>1.05804283016121</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053113769565055</v>
+        <v>1.038743283158534</v>
       </c>
       <c r="J3">
-        <v>1.032367853071549</v>
+        <v>1.045269710415986</v>
       </c>
       <c r="K3">
-        <v>1.036691541723929</v>
+        <v>1.052706394639569</v>
       </c>
       <c r="L3">
-        <v>1.027084791984789</v>
+        <v>1.041500575928293</v>
       </c>
       <c r="M3">
-        <v>1.043109880177385</v>
+        <v>1.060592167654349</v>
       </c>
       <c r="N3">
-        <v>1.033833933837158</v>
+        <v>1.046754113298889</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.015398012789386</v>
+        <v>1.041212688302554</v>
       </c>
       <c r="D4">
-        <v>1.029267674039966</v>
+        <v>1.050781251546125</v>
       </c>
       <c r="E4">
-        <v>1.019242367322165</v>
+        <v>1.039481011611792</v>
       </c>
       <c r="F4">
-        <v>1.035985870106619</v>
+        <v>1.058739208209519</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054026134811935</v>
+        <v>1.038874570948507</v>
       </c>
       <c r="J4">
-        <v>1.034415872074858</v>
+        <v>1.04571871624163</v>
       </c>
       <c r="K4">
-        <v>1.039025244456344</v>
+        <v>1.053228401842152</v>
       </c>
       <c r="L4">
-        <v>1.02911397117786</v>
+        <v>1.041956204945406</v>
       </c>
       <c r="M4">
-        <v>1.045668542835563</v>
+        <v>1.061166995973935</v>
       </c>
       <c r="N4">
-        <v>1.035884861262363</v>
+        <v>1.047203756764306</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.016723528814092</v>
+        <v>1.041498315567358</v>
       </c>
       <c r="D5">
-        <v>1.030465011521206</v>
+        <v>1.051052220045382</v>
       </c>
       <c r="E5">
-        <v>1.020315293055218</v>
+        <v>1.039724660486286</v>
       </c>
       <c r="F5">
-        <v>1.037275593089911</v>
+        <v>1.059032007638121</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054400947837429</v>
+        <v>1.038929287360746</v>
       </c>
       <c r="J5">
-        <v>1.035264963492717</v>
+        <v>1.045907317492677</v>
       </c>
       <c r="K5">
-        <v>1.03999340335362</v>
+        <v>1.053447746767585</v>
       </c>
       <c r="L5">
-        <v>1.029955947995349</v>
+        <v>1.042147670147702</v>
       </c>
       <c r="M5">
-        <v>1.046730165040748</v>
+        <v>1.061408552743239</v>
       </c>
       <c r="N5">
-        <v>1.036735158487428</v>
+        <v>1.047392625850763</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.016945107952347</v>
+        <v>1.041546272323548</v>
       </c>
       <c r="D6">
-        <v>1.030665225048023</v>
+        <v>1.051097719168365</v>
       </c>
       <c r="E6">
-        <v>1.020494728865549</v>
+        <v>1.03976557428882</v>
       </c>
       <c r="F6">
-        <v>1.037491250604448</v>
+        <v>1.059081172410417</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054463373931912</v>
+        <v>1.038938446506078</v>
       </c>
       <c r="J6">
-        <v>1.03540684392383</v>
+        <v>1.045938975034433</v>
       </c>
       <c r="K6">
-        <v>1.04015521650394</v>
+        <v>1.053484569467373</v>
       </c>
       <c r="L6">
-        <v>1.030096680534879</v>
+        <v>1.04217981322304</v>
       </c>
       <c r="M6">
-        <v>1.0469076072524</v>
+        <v>1.061449105252133</v>
       </c>
       <c r="N6">
-        <v>1.036877240405027</v>
+        <v>1.047424328349859</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.015415790533218</v>
+        <v>1.041216504956453</v>
       </c>
       <c r="D7">
-        <v>1.029283728515562</v>
+        <v>1.050784872084789</v>
       </c>
       <c r="E7">
-        <v>1.019256751878358</v>
+        <v>1.039484266985929</v>
       </c>
       <c r="F7">
-        <v>1.036003163625312</v>
+        <v>1.058743120444788</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054031177162116</v>
+        <v>1.038875303946553</v>
       </c>
       <c r="J7">
-        <v>1.034427263876929</v>
+        <v>1.045721236972997</v>
       </c>
       <c r="K7">
-        <v>1.039038231242736</v>
+        <v>1.053231333160257</v>
       </c>
       <c r="L7">
-        <v>1.029125264774421</v>
+        <v>1.041958763632491</v>
       </c>
       <c r="M7">
-        <v>1.045682782787313</v>
+        <v>1.061170224064816</v>
       </c>
       <c r="N7">
-        <v>1.035896269242099</v>
+        <v>1.047206281075401</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.00887690001814</v>
+        <v>1.039837939827371</v>
       </c>
       <c r="D8">
-        <v>1.023386186334227</v>
+        <v>1.049477560713133</v>
       </c>
       <c r="E8">
-        <v>1.013975785946808</v>
+        <v>1.038309043259821</v>
       </c>
       <c r="F8">
-        <v>1.029649910708144</v>
+        <v>1.057330476537733</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052149858426019</v>
+        <v>1.03860733139762</v>
       </c>
       <c r="J8">
-        <v>1.030230698945933</v>
+        <v>1.0448097636144</v>
       </c>
       <c r="K8">
-        <v>1.034258427376837</v>
+        <v>1.052171940393039</v>
       </c>
       <c r="L8">
-        <v>1.024969716499833</v>
+        <v>1.041034124025581</v>
       </c>
       <c r="M8">
-        <v>1.040442691643325</v>
+        <v>1.060003689508887</v>
       </c>
       <c r="N8">
-        <v>1.031693744707549</v>
+        <v>1.046293513320088</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.996753598062857</v>
+        <v>1.03740800350786</v>
       </c>
       <c r="D9">
-        <v>1.012490835549575</v>
+        <v>1.047175210398829</v>
       </c>
       <c r="E9">
-        <v>1.004235486817947</v>
+        <v>1.036240425979571</v>
       </c>
       <c r="F9">
-        <v>1.017909552409968</v>
+        <v>1.054842586045736</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048537294228097</v>
+        <v>1.038119898509646</v>
       </c>
       <c r="J9">
-        <v>1.022421518300327</v>
+        <v>1.043198509344289</v>
       </c>
       <c r="K9">
-        <v>1.025384456938671</v>
+        <v>1.050301759029009</v>
       </c>
       <c r="L9">
-        <v>1.017260217948246</v>
+        <v>1.039402219656237</v>
       </c>
       <c r="M9">
-        <v>1.030718591893835</v>
+        <v>1.057944897689818</v>
       </c>
       <c r="N9">
-        <v>1.023873474129701</v>
+        <v>1.044679970884099</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9882173572612096</v>
+        <v>1.035787545856876</v>
       </c>
       <c r="D10">
-        <v>1.004848731233295</v>
+        <v>1.045641202028071</v>
       </c>
       <c r="E10">
-        <v>0.9974153891713702</v>
+        <v>1.034862907347321</v>
       </c>
       <c r="F10">
-        <v>1.009672143220847</v>
+        <v>1.053184925634463</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045912925688785</v>
+        <v>1.037784722918254</v>
       </c>
       <c r="J10">
-        <v>1.016906384467572</v>
+        <v>1.042120910794823</v>
       </c>
       <c r="K10">
-        <v>1.019130988745697</v>
+        <v>1.049052703726812</v>
       </c>
       <c r="L10">
-        <v>1.01183146689964</v>
+        <v>1.038312573545274</v>
       </c>
       <c r="M10">
-        <v>1.023868932804741</v>
+        <v>1.056570227562026</v>
       </c>
       <c r="N10">
-        <v>1.018350508174308</v>
+        <v>1.043600842021091</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9844010591243353</v>
+        <v>1.035085747773233</v>
       </c>
       <c r="D11">
-        <v>1.001439944420773</v>
+        <v>1.044977173845906</v>
       </c>
       <c r="E11">
-        <v>0.994376319414244</v>
+        <v>1.034266801695413</v>
       </c>
       <c r="F11">
-        <v>1.005997079833314</v>
+        <v>1.052467363381182</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044721368124414</v>
+        <v>1.037637167811695</v>
       </c>
       <c r="J11">
-        <v>1.014437485470332</v>
+        <v>1.041653487639179</v>
       </c>
       <c r="K11">
-        <v>1.016334756493342</v>
+        <v>1.048511313477833</v>
       </c>
       <c r="L11">
-        <v>1.009405075130629</v>
+        <v>1.037840342420042</v>
       </c>
       <c r="M11">
-        <v>1.020806779315733</v>
+        <v>1.055974474315494</v>
       </c>
       <c r="N11">
-        <v>1.015878103057306</v>
+        <v>1.043132755070951</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9829643290191863</v>
+        <v>1.034825048882975</v>
       </c>
       <c r="D12">
-        <v>1.000157868463963</v>
+        <v>1.044730555514266</v>
       </c>
       <c r="E12">
-        <v>0.9932337795484304</v>
+        <v>1.034045437285276</v>
       </c>
       <c r="F12">
-        <v>1.004614732972201</v>
+        <v>1.052200861215898</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04427011048264</v>
+        <v>1.037581995645171</v>
       </c>
       <c r="J12">
-        <v>1.01350758704981</v>
+        <v>1.041479743370125</v>
       </c>
       <c r="K12">
-        <v>1.01528204458807</v>
+        <v>1.048310135827434</v>
       </c>
       <c r="L12">
-        <v>1.008491767966603</v>
+        <v>1.037664873752097</v>
       </c>
       <c r="M12">
-        <v>1.019654052819815</v>
+        <v>1.055753108169362</v>
       </c>
       <c r="N12">
-        <v>1.014946884074367</v>
+        <v>1.042958764065107</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9832734002940547</v>
+        <v>1.034880970584225</v>
       </c>
       <c r="D13">
-        <v>1.000433613262375</v>
+        <v>1.044783454565319</v>
       </c>
       <c r="E13">
-        <v>0.9934794912113104</v>
+        <v>1.034092918173692</v>
       </c>
       <c r="F13">
-        <v>1.004912049401371</v>
+        <v>1.05225802536857</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044367304917301</v>
+        <v>1.037593846713608</v>
       </c>
       <c r="J13">
-        <v>1.013707646272531</v>
+        <v>1.041517017647671</v>
       </c>
       <c r="K13">
-        <v>1.015508504632267</v>
+        <v>1.048353292789874</v>
       </c>
       <c r="L13">
-        <v>1.008688231402053</v>
+        <v>1.037702515134797</v>
       </c>
       <c r="M13">
-        <v>1.019902023660104</v>
+        <v>1.055800595436545</v>
       </c>
       <c r="N13">
-        <v>1.015147227404131</v>
+        <v>1.042996091276402</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9842826969712575</v>
+        <v>1.035064198728694</v>
       </c>
       <c r="D14">
-        <v>1.001334297583564</v>
+        <v>1.044956787658493</v>
       </c>
       <c r="E14">
-        <v>0.994282160829758</v>
+        <v>1.034248502504616</v>
       </c>
       <c r="F14">
-        <v>1.00588317291869</v>
+        <v>1.052445333567992</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044684245928921</v>
+        <v>1.037632614679846</v>
       </c>
       <c r="J14">
-        <v>1.014360885938609</v>
+        <v>1.041639128382167</v>
       </c>
       <c r="K14">
-        <v>1.016248030689552</v>
+        <v>1.04849468572663</v>
       </c>
       <c r="L14">
-        <v>1.009329830456164</v>
+        <v>1.037825839368666</v>
       </c>
       <c r="M14">
-        <v>1.020711812003529</v>
+        <v>1.05595617768849</v>
       </c>
       <c r="N14">
-        <v>1.015801394745462</v>
+        <v>1.043118375422147</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9849019794455376</v>
+        <v>1.035177088994934</v>
       </c>
       <c r="D15">
-        <v>1.001887103102626</v>
+        <v>1.045063588049002</v>
       </c>
       <c r="E15">
-        <v>0.9947748729318417</v>
+        <v>1.034344370545795</v>
       </c>
       <c r="F15">
-        <v>1.006479194922038</v>
+        <v>1.052560744625701</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044878364662571</v>
+        <v>1.037656452725553</v>
       </c>
       <c r="J15">
-        <v>1.014761645250155</v>
+        <v>1.041714348606067</v>
       </c>
       <c r="K15">
-        <v>1.016701788726676</v>
+        <v>1.048581791823217</v>
       </c>
       <c r="L15">
-        <v>1.009723525016646</v>
+        <v>1.037901815421032</v>
       </c>
       <c r="M15">
-        <v>1.021208694420114</v>
+        <v>1.056052026865159</v>
       </c>
       <c r="N15">
-        <v>1.016202723181198</v>
+        <v>1.043193702467394</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9884680070024142</v>
+        <v>1.035834119125974</v>
       </c>
       <c r="D16">
-        <v>1.005072783556495</v>
+        <v>1.045685275774856</v>
       </c>
       <c r="E16">
-        <v>0.9976152063264547</v>
+        <v>1.034902476719182</v>
       </c>
       <c r="F16">
-        <v>1.009913681055492</v>
+        <v>1.053232552422078</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045990811889437</v>
+        <v>1.037794464658382</v>
       </c>
       <c r="J16">
-        <v>1.017068476238385</v>
+        <v>1.042151914947577</v>
       </c>
       <c r="K16">
-        <v>1.019314637023</v>
+        <v>1.049088622622189</v>
       </c>
       <c r="L16">
-        <v>1.011990848077475</v>
+        <v>1.038343905405898</v>
       </c>
       <c r="M16">
-        <v>1.024070059685221</v>
+        <v>1.056609754960669</v>
       </c>
       <c r="N16">
-        <v>1.018512830134028</v>
+        <v>1.043631890203297</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9906719580246923</v>
+        <v>1.036246221876182</v>
       </c>
       <c r="D17">
-        <v>1.007043755331857</v>
+        <v>1.046075299716156</v>
       </c>
       <c r="E17">
-        <v>0.9993733335057688</v>
+        <v>1.035252661006315</v>
       </c>
       <c r="F17">
-        <v>1.012038386311097</v>
+        <v>1.053654017444881</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046673594070064</v>
+        <v>1.037880387658469</v>
       </c>
       <c r="J17">
-        <v>1.018493379547103</v>
+        <v>1.042426170378415</v>
       </c>
       <c r="K17">
-        <v>1.020929398969239</v>
+        <v>1.049406399394526</v>
       </c>
       <c r="L17">
-        <v>1.013392359384597</v>
+        <v>1.038621107885147</v>
       </c>
       <c r="M17">
-        <v>1.025838580832746</v>
+        <v>1.056959466024459</v>
       </c>
       <c r="N17">
-        <v>1.019939756968884</v>
+        <v>1.043906535108306</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9919459849490112</v>
+        <v>1.036486581997962</v>
       </c>
       <c r="D18">
-        <v>1.008183835728078</v>
+        <v>1.04630281410201</v>
       </c>
       <c r="E18">
-        <v>1.000390585305725</v>
+        <v>1.035456953158204</v>
       </c>
       <c r="F18">
-        <v>1.013267322352923</v>
+        <v>1.053899871668448</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047066550899599</v>
+        <v>1.037930271401052</v>
       </c>
       <c r="J18">
-        <v>1.019316754672927</v>
+        <v>1.042586060206363</v>
       </c>
       <c r="K18">
-        <v>1.021862785082118</v>
+        <v>1.049591700999833</v>
       </c>
       <c r="L18">
-        <v>1.014202580142773</v>
+        <v>1.038782756104402</v>
       </c>
       <c r="M18">
-        <v>1.02686090792832</v>
+        <v>1.057163397166206</v>
       </c>
       <c r="N18">
-        <v>1.020764301381828</v>
+        <v>1.044066651998149</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9923784779511721</v>
+        <v>1.03656853649065</v>
       </c>
       <c r="D19">
-        <v>1.008570979919557</v>
+        <v>1.046380394020105</v>
       </c>
       <c r="E19">
-        <v>1.000736068080319</v>
+        <v>1.035526617527732</v>
       </c>
       <c r="F19">
-        <v>1.013684628369298</v>
+        <v>1.053983705134053</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047199651022374</v>
+        <v>1.037947240823331</v>
       </c>
       <c r="J19">
-        <v>1.019596210613159</v>
+        <v>1.042640565150195</v>
       </c>
       <c r="K19">
-        <v>1.022179630406242</v>
+        <v>1.049654875200382</v>
       </c>
       <c r="L19">
-        <v>1.014477632833962</v>
+        <v>1.03883786729908</v>
       </c>
       <c r="M19">
-        <v>1.027207955722886</v>
+        <v>1.057232924033623</v>
       </c>
       <c r="N19">
-        <v>1.02104415418155</v>
+        <v>1.044121234345252</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9904366924954293</v>
+        <v>1.036202008440794</v>
       </c>
       <c r="D20">
-        <v>1.00683328336034</v>
+        <v>1.046033451766704</v>
       </c>
       <c r="E20">
-        <v>0.9991855602593408</v>
+        <v>1.035215085863511</v>
       </c>
       <c r="F20">
-        <v>1.011811505038023</v>
+        <v>1.053608796084331</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046600888618072</v>
+        <v>1.037871193103631</v>
       </c>
       <c r="J20">
-        <v>1.018341307071512</v>
+        <v>1.042396753508406</v>
       </c>
       <c r="K20">
-        <v>1.020757032567245</v>
+        <v>1.049372310353833</v>
       </c>
       <c r="L20">
-        <v>1.013242745741542</v>
+        <v>1.038591370745876</v>
       </c>
       <c r="M20">
-        <v>1.025649795002763</v>
+        <v>1.056921950446581</v>
       </c>
       <c r="N20">
-        <v>1.019787468532934</v>
+        <v>1.043877076462967</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9839860236384451</v>
+        <v>1.035010243157902</v>
       </c>
       <c r="D21">
-        <v>1.001069515211519</v>
+        <v>1.044905744517795</v>
       </c>
       <c r="E21">
-        <v>0.9940461792777284</v>
+        <v>1.03420268525482</v>
       </c>
       <c r="F21">
-        <v>1.005597686337387</v>
+        <v>1.05239017507723</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044591156874026</v>
+        <v>1.037621208516223</v>
       </c>
       <c r="J21">
-        <v>1.014168883466457</v>
+        <v>1.0416031731953</v>
       </c>
       <c r="K21">
-        <v>1.016030653589792</v>
+        <v>1.04845305127195</v>
       </c>
       <c r="L21">
-        <v>1.009141233408373</v>
+        <v>1.037789525138175</v>
       </c>
       <c r="M21">
-        <v>1.020473779244432</v>
+        <v>1.055910364714467</v>
       </c>
       <c r="N21">
-        <v>1.015609119607776</v>
+        <v>1.043082369174791</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9798185797143175</v>
+        <v>1.034260818057464</v>
       </c>
       <c r="D22">
-        <v>0.9973530964603307</v>
+        <v>1.044196891363825</v>
       </c>
       <c r="E22">
-        <v>0.9907351809913878</v>
+        <v>1.033566471641514</v>
       </c>
       <c r="F22">
-        <v>1.001590363659811</v>
+        <v>1.051624167168028</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043277248919077</v>
+        <v>1.037461929541651</v>
       </c>
       <c r="J22">
-        <v>1.011470841598444</v>
+        <v>1.041103509060375</v>
       </c>
       <c r="K22">
-        <v>1.012977172025581</v>
+        <v>1.047874606802403</v>
       </c>
       <c r="L22">
-        <v>1.006492437469905</v>
+        <v>1.037285020121827</v>
       </c>
       <c r="M22">
-        <v>1.01713038083415</v>
+        <v>1.055273895925932</v>
       </c>
       <c r="N22">
-        <v>1.012907246210841</v>
+        <v>1.042581995459482</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9820388139432398</v>
+        <v>1.034658113521344</v>
       </c>
       <c r="D23">
-        <v>0.9993323366590789</v>
+        <v>1.044572650624188</v>
       </c>
       <c r="E23">
-        <v>0.992498234185106</v>
+        <v>1.033903709805638</v>
       </c>
       <c r="F23">
-        <v>1.003724600744894</v>
+        <v>1.05203022468192</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043978676321804</v>
+        <v>1.037546565675692</v>
       </c>
       <c r="J23">
-        <v>1.01290845135696</v>
+        <v>1.041368457623573</v>
       </c>
       <c r="K23">
-        <v>1.014603913235257</v>
+        <v>1.04818129566606</v>
       </c>
       <c r="L23">
-        <v>1.007903486468291</v>
+        <v>1.037552501167807</v>
       </c>
       <c r="M23">
-        <v>1.01891152194742</v>
+        <v>1.055611342206391</v>
       </c>
       <c r="N23">
-        <v>1.01434689754011</v>
+        <v>1.042847320280031</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9905430343162762</v>
+        <v>1.036221986627302</v>
       </c>
       <c r="D24">
-        <v>1.006928416042107</v>
+        <v>1.046052360991747</v>
       </c>
       <c r="E24">
-        <v>0.9992704322949983</v>
+        <v>1.035232064343122</v>
       </c>
       <c r="F24">
-        <v>1.011914054887513</v>
+        <v>1.05362922960618</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046633757428898</v>
+        <v>1.037875348449203</v>
       </c>
       <c r="J24">
-        <v>1.018410045966173</v>
+        <v>1.042410045968859</v>
       </c>
       <c r="K24">
-        <v>1.02083494366477</v>
+        <v>1.049387713885168</v>
       </c>
       <c r="L24">
-        <v>1.013310372084696</v>
+        <v>1.03860480780042</v>
       </c>
       <c r="M24">
-        <v>1.025735127627366</v>
+        <v>1.056938902273893</v>
       </c>
       <c r="N24">
-        <v>1.01985630504471</v>
+        <v>1.043890387800238</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9999638932848177</v>
+        <v>1.03803628766208</v>
       </c>
       <c r="D25">
-        <v>1.015371132184069</v>
+        <v>1.047770267258149</v>
       </c>
       <c r="E25">
-        <v>1.006808472925257</v>
+        <v>1.036774940316406</v>
       </c>
       <c r="F25">
-        <v>1.021013646800492</v>
+        <v>1.055485601813737</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049508050700698</v>
+        <v>1.038247714449618</v>
       </c>
       <c r="J25">
-        <v>1.024492472625952</v>
+        <v>1.043615662626397</v>
       </c>
       <c r="K25">
-        <v>1.027735426867732</v>
+        <v>1.05078564655299</v>
       </c>
       <c r="L25">
-        <v>1.019302007605725</v>
+        <v>1.039824408788658</v>
       </c>
       <c r="M25">
-        <v>1.033294281475139</v>
+        <v>1.058477523397512</v>
       </c>
       <c r="N25">
-        <v>1.02594736944801</v>
+        <v>1.045097716571717</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_152/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_152/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.039482991695807</v>
+        <v>1.00715444963872</v>
       </c>
       <c r="D2">
-        <v>1.049141092787546</v>
+        <v>1.021835152894608</v>
       </c>
       <c r="E2">
-        <v>1.038006646078971</v>
+        <v>1.012587937207944</v>
       </c>
       <c r="F2">
-        <v>1.056966896595004</v>
+        <v>1.027978837070859</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038537309730384</v>
+        <v>1.051645890477511</v>
       </c>
       <c r="J2">
-        <v>1.044574764889604</v>
+        <v>1.029123257964638</v>
       </c>
       <c r="K2">
-        <v>1.051898978263679</v>
+        <v>1.032998445108145</v>
       </c>
       <c r="L2">
-        <v>1.040795908726703</v>
+        <v>1.023874644008968</v>
       </c>
       <c r="M2">
-        <v>1.059703157406805</v>
+        <v>1.039061672165196</v>
       </c>
       <c r="N2">
-        <v>1.046058180870148</v>
+        <v>1.030584731033035</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040533216866516</v>
+        <v>1.0122044534876</v>
       </c>
       <c r="D3">
-        <v>1.050136796849661</v>
+        <v>1.026385494118965</v>
       </c>
       <c r="E3">
-        <v>1.038901613526406</v>
+        <v>1.016660741075672</v>
       </c>
       <c r="F3">
-        <v>1.05804283016121</v>
+        <v>1.03288111924656</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038743283158534</v>
+        <v>1.053113769565054</v>
       </c>
       <c r="J3">
-        <v>1.045269710415986</v>
+        <v>1.032367853071548</v>
       </c>
       <c r="K3">
-        <v>1.052706394639569</v>
+        <v>1.036691541723928</v>
       </c>
       <c r="L3">
-        <v>1.041500575928293</v>
+        <v>1.027084791984787</v>
       </c>
       <c r="M3">
-        <v>1.060592167654349</v>
+        <v>1.043109880177384</v>
       </c>
       <c r="N3">
-        <v>1.046754113298889</v>
+        <v>1.033833933837157</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.041212688302554</v>
+        <v>1.015398012789386</v>
       </c>
       <c r="D4">
-        <v>1.050781251546125</v>
+        <v>1.029267674039966</v>
       </c>
       <c r="E4">
-        <v>1.039481011611792</v>
+        <v>1.019242367322166</v>
       </c>
       <c r="F4">
-        <v>1.058739208209519</v>
+        <v>1.035985870106619</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038874570948507</v>
+        <v>1.054026134811936</v>
       </c>
       <c r="J4">
-        <v>1.04571871624163</v>
+        <v>1.034415872074858</v>
       </c>
       <c r="K4">
-        <v>1.053228401842152</v>
+        <v>1.039025244456344</v>
       </c>
       <c r="L4">
-        <v>1.041956204945406</v>
+        <v>1.02911397117786</v>
       </c>
       <c r="M4">
-        <v>1.061166995973935</v>
+        <v>1.045668542835563</v>
       </c>
       <c r="N4">
-        <v>1.047203756764306</v>
+        <v>1.035884861262363</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041498315567358</v>
+        <v>1.016723528814092</v>
       </c>
       <c r="D5">
-        <v>1.051052220045382</v>
+        <v>1.030465011521206</v>
       </c>
       <c r="E5">
-        <v>1.039724660486286</v>
+        <v>1.020315293055218</v>
       </c>
       <c r="F5">
-        <v>1.059032007638121</v>
+        <v>1.037275593089911</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038929287360746</v>
+        <v>1.05440094783743</v>
       </c>
       <c r="J5">
-        <v>1.045907317492677</v>
+        <v>1.035264963492718</v>
       </c>
       <c r="K5">
-        <v>1.053447746767585</v>
+        <v>1.03999340335362</v>
       </c>
       <c r="L5">
-        <v>1.042147670147702</v>
+        <v>1.029955947995349</v>
       </c>
       <c r="M5">
-        <v>1.061408552743239</v>
+        <v>1.046730165040748</v>
       </c>
       <c r="N5">
-        <v>1.047392625850763</v>
+        <v>1.036735158487428</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041546272323548</v>
+        <v>1.016945107952346</v>
       </c>
       <c r="D6">
-        <v>1.051097719168365</v>
+        <v>1.030665225048022</v>
       </c>
       <c r="E6">
-        <v>1.03976557428882</v>
+        <v>1.020494728865548</v>
       </c>
       <c r="F6">
-        <v>1.059081172410417</v>
+        <v>1.037491250604448</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038938446506078</v>
+        <v>1.054463373931912</v>
       </c>
       <c r="J6">
-        <v>1.045938975034433</v>
+        <v>1.03540684392383</v>
       </c>
       <c r="K6">
-        <v>1.053484569467373</v>
+        <v>1.04015521650394</v>
       </c>
       <c r="L6">
-        <v>1.04217981322304</v>
+        <v>1.030096680534878</v>
       </c>
       <c r="M6">
-        <v>1.061449105252133</v>
+        <v>1.0469076072524</v>
       </c>
       <c r="N6">
-        <v>1.047424328349859</v>
+        <v>1.036877240405026</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.041216504956453</v>
+        <v>1.015415790533218</v>
       </c>
       <c r="D7">
-        <v>1.050784872084789</v>
+        <v>1.029283728515562</v>
       </c>
       <c r="E7">
-        <v>1.039484266985929</v>
+        <v>1.019256751878358</v>
       </c>
       <c r="F7">
-        <v>1.058743120444788</v>
+        <v>1.036003163625312</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038875303946553</v>
+        <v>1.054031177162116</v>
       </c>
       <c r="J7">
-        <v>1.045721236972997</v>
+        <v>1.034427263876929</v>
       </c>
       <c r="K7">
-        <v>1.053231333160257</v>
+        <v>1.039038231242736</v>
       </c>
       <c r="L7">
-        <v>1.041958763632491</v>
+        <v>1.029125264774421</v>
       </c>
       <c r="M7">
-        <v>1.061170224064816</v>
+        <v>1.045682782787313</v>
       </c>
       <c r="N7">
-        <v>1.047206281075401</v>
+        <v>1.035896269242099</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.039837939827371</v>
+        <v>1.00887690001814</v>
       </c>
       <c r="D8">
-        <v>1.049477560713133</v>
+        <v>1.023386186334226</v>
       </c>
       <c r="E8">
-        <v>1.038309043259821</v>
+        <v>1.013975785946808</v>
       </c>
       <c r="F8">
-        <v>1.057330476537733</v>
+        <v>1.029649910708144</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03860733139762</v>
+        <v>1.052149858426019</v>
       </c>
       <c r="J8">
-        <v>1.0448097636144</v>
+        <v>1.030230698945932</v>
       </c>
       <c r="K8">
-        <v>1.052171940393039</v>
+        <v>1.034258427376837</v>
       </c>
       <c r="L8">
-        <v>1.041034124025581</v>
+        <v>1.024969716499833</v>
       </c>
       <c r="M8">
-        <v>1.060003689508887</v>
+        <v>1.040442691643325</v>
       </c>
       <c r="N8">
-        <v>1.046293513320088</v>
+        <v>1.031693744707549</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03740800350786</v>
+        <v>0.9967535980628567</v>
       </c>
       <c r="D9">
-        <v>1.047175210398829</v>
+        <v>1.012490835549575</v>
       </c>
       <c r="E9">
-        <v>1.036240425979571</v>
+        <v>1.004235486817946</v>
       </c>
       <c r="F9">
-        <v>1.054842586045736</v>
+        <v>1.017909552409968</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038119898509646</v>
+        <v>1.048537294228097</v>
       </c>
       <c r="J9">
-        <v>1.043198509344289</v>
+        <v>1.022421518300327</v>
       </c>
       <c r="K9">
-        <v>1.050301759029009</v>
+        <v>1.02538445693867</v>
       </c>
       <c r="L9">
-        <v>1.039402219656237</v>
+        <v>1.017260217948246</v>
       </c>
       <c r="M9">
-        <v>1.057944897689818</v>
+        <v>1.030718591893834</v>
       </c>
       <c r="N9">
-        <v>1.044679970884099</v>
+        <v>1.0238734741297</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035787545856876</v>
+        <v>0.9882173572612097</v>
       </c>
       <c r="D10">
-        <v>1.045641202028071</v>
+        <v>1.004848731233296</v>
       </c>
       <c r="E10">
-        <v>1.034862907347321</v>
+        <v>0.9974153891713702</v>
       </c>
       <c r="F10">
-        <v>1.053184925634463</v>
+        <v>1.009672143220847</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037784722918254</v>
+        <v>1.045912925688785</v>
       </c>
       <c r="J10">
-        <v>1.042120910794823</v>
+        <v>1.016906384467572</v>
       </c>
       <c r="K10">
-        <v>1.049052703726812</v>
+        <v>1.019130988745697</v>
       </c>
       <c r="L10">
-        <v>1.038312573545274</v>
+        <v>1.01183146689964</v>
       </c>
       <c r="M10">
-        <v>1.056570227562026</v>
+        <v>1.023868932804742</v>
       </c>
       <c r="N10">
-        <v>1.043600842021091</v>
+        <v>1.018350508174308</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035085747773233</v>
+        <v>0.9844010591243344</v>
       </c>
       <c r="D11">
-        <v>1.044977173845906</v>
+        <v>1.001439944420772</v>
       </c>
       <c r="E11">
-        <v>1.034266801695413</v>
+        <v>0.9943763194142432</v>
       </c>
       <c r="F11">
-        <v>1.052467363381182</v>
+        <v>1.005997079833313</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037637167811695</v>
+        <v>1.044721368124414</v>
       </c>
       <c r="J11">
-        <v>1.041653487639179</v>
+        <v>1.014437485470331</v>
       </c>
       <c r="K11">
-        <v>1.048511313477833</v>
+        <v>1.016334756493341</v>
       </c>
       <c r="L11">
-        <v>1.037840342420042</v>
+        <v>1.009405075130628</v>
       </c>
       <c r="M11">
-        <v>1.055974474315494</v>
+        <v>1.020806779315732</v>
       </c>
       <c r="N11">
-        <v>1.043132755070951</v>
+        <v>1.015878103057305</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034825048882975</v>
+        <v>0.9829643290191873</v>
       </c>
       <c r="D12">
-        <v>1.044730555514266</v>
+        <v>1.000157868463964</v>
       </c>
       <c r="E12">
-        <v>1.034045437285276</v>
+        <v>0.9932337795484311</v>
       </c>
       <c r="F12">
-        <v>1.052200861215898</v>
+        <v>1.004614732972201</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037581995645171</v>
+        <v>1.04427011048264</v>
       </c>
       <c r="J12">
-        <v>1.041479743370125</v>
+        <v>1.013507587049811</v>
       </c>
       <c r="K12">
-        <v>1.048310135827434</v>
+        <v>1.015282044588071</v>
       </c>
       <c r="L12">
-        <v>1.037664873752097</v>
+        <v>1.008491767966604</v>
       </c>
       <c r="M12">
-        <v>1.055753108169362</v>
+        <v>1.019654052819815</v>
       </c>
       <c r="N12">
-        <v>1.042958764065107</v>
+        <v>1.014946884074367</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034880970584225</v>
+        <v>0.9832734002940539</v>
       </c>
       <c r="D13">
-        <v>1.044783454565319</v>
+        <v>1.000433613262374</v>
       </c>
       <c r="E13">
-        <v>1.034092918173692</v>
+        <v>0.9934794912113091</v>
       </c>
       <c r="F13">
-        <v>1.05225802536857</v>
+        <v>1.004912049401369</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037593846713608</v>
+        <v>1.0443673049173</v>
       </c>
       <c r="J13">
-        <v>1.041517017647671</v>
+        <v>1.013707646272531</v>
       </c>
       <c r="K13">
-        <v>1.048353292789874</v>
+        <v>1.015508504632266</v>
       </c>
       <c r="L13">
-        <v>1.037702515134797</v>
+        <v>1.008688231402052</v>
       </c>
       <c r="M13">
-        <v>1.055800595436545</v>
+        <v>1.019902023660102</v>
       </c>
       <c r="N13">
-        <v>1.042996091276402</v>
+        <v>1.01514722740413</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035064198728694</v>
+        <v>0.9842826969712566</v>
       </c>
       <c r="D14">
-        <v>1.044956787658493</v>
+        <v>1.001334297583563</v>
       </c>
       <c r="E14">
-        <v>1.034248502504616</v>
+        <v>0.9942821608297568</v>
       </c>
       <c r="F14">
-        <v>1.052445333567992</v>
+        <v>1.005883172918689</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037632614679846</v>
+        <v>1.044684245928921</v>
       </c>
       <c r="J14">
-        <v>1.041639128382167</v>
+        <v>1.014360885938608</v>
       </c>
       <c r="K14">
-        <v>1.04849468572663</v>
+        <v>1.016248030689551</v>
       </c>
       <c r="L14">
-        <v>1.037825839368666</v>
+        <v>1.009329830456163</v>
       </c>
       <c r="M14">
-        <v>1.05595617768849</v>
+        <v>1.020711812003528</v>
       </c>
       <c r="N14">
-        <v>1.043118375422147</v>
+        <v>1.015801394745461</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035177088994934</v>
+        <v>0.9849019794455374</v>
       </c>
       <c r="D15">
-        <v>1.045063588049002</v>
+        <v>1.001887103102625</v>
       </c>
       <c r="E15">
-        <v>1.034344370545795</v>
+        <v>0.9947748729318412</v>
       </c>
       <c r="F15">
-        <v>1.052560744625701</v>
+        <v>1.006479194922038</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037656452725553</v>
+        <v>1.044878364662571</v>
       </c>
       <c r="J15">
-        <v>1.041714348606067</v>
+        <v>1.014761645250155</v>
       </c>
       <c r="K15">
-        <v>1.048581791823217</v>
+        <v>1.016701788726676</v>
       </c>
       <c r="L15">
-        <v>1.037901815421032</v>
+        <v>1.009723525016646</v>
       </c>
       <c r="M15">
-        <v>1.056052026865159</v>
+        <v>1.021208694420113</v>
       </c>
       <c r="N15">
-        <v>1.043193702467394</v>
+        <v>1.016202723181197</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035834119125974</v>
+        <v>0.9884680070024132</v>
       </c>
       <c r="D16">
-        <v>1.045685275774856</v>
+        <v>1.005072783556495</v>
       </c>
       <c r="E16">
-        <v>1.034902476719182</v>
+        <v>0.9976152063264538</v>
       </c>
       <c r="F16">
-        <v>1.053232552422078</v>
+        <v>1.009913681055491</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037794464658382</v>
+        <v>1.045990811889436</v>
       </c>
       <c r="J16">
-        <v>1.042151914947577</v>
+        <v>1.017068476238384</v>
       </c>
       <c r="K16">
-        <v>1.049088622622189</v>
+        <v>1.019314637022999</v>
       </c>
       <c r="L16">
-        <v>1.038343905405898</v>
+        <v>1.011990848077475</v>
       </c>
       <c r="M16">
-        <v>1.056609754960669</v>
+        <v>1.024070059685219</v>
       </c>
       <c r="N16">
-        <v>1.043631890203297</v>
+        <v>1.018512830134027</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036246221876182</v>
+        <v>0.9906719580246925</v>
       </c>
       <c r="D17">
-        <v>1.046075299716156</v>
+        <v>1.007043755331857</v>
       </c>
       <c r="E17">
-        <v>1.035252661006315</v>
+        <v>0.9993733335057693</v>
       </c>
       <c r="F17">
-        <v>1.053654017444881</v>
+        <v>1.012038386311097</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037880387658469</v>
+        <v>1.046673594070064</v>
       </c>
       <c r="J17">
-        <v>1.042426170378415</v>
+        <v>1.018493379547103</v>
       </c>
       <c r="K17">
-        <v>1.049406399394526</v>
+        <v>1.020929398969239</v>
       </c>
       <c r="L17">
-        <v>1.038621107885147</v>
+        <v>1.013392359384597</v>
       </c>
       <c r="M17">
-        <v>1.056959466024459</v>
+        <v>1.025838580832746</v>
       </c>
       <c r="N17">
-        <v>1.043906535108306</v>
+        <v>1.019939756968884</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036486581997962</v>
+        <v>0.9919459849490111</v>
       </c>
       <c r="D18">
-        <v>1.04630281410201</v>
+        <v>1.008183835728078</v>
       </c>
       <c r="E18">
-        <v>1.035456953158204</v>
+        <v>1.000390585305725</v>
       </c>
       <c r="F18">
-        <v>1.053899871668448</v>
+        <v>1.013267322352923</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037930271401052</v>
+        <v>1.047066550899599</v>
       </c>
       <c r="J18">
-        <v>1.042586060206363</v>
+        <v>1.019316754672926</v>
       </c>
       <c r="K18">
-        <v>1.049591700999833</v>
+        <v>1.021862785082118</v>
       </c>
       <c r="L18">
-        <v>1.038782756104402</v>
+        <v>1.014202580142773</v>
       </c>
       <c r="M18">
-        <v>1.057163397166206</v>
+        <v>1.02686090792832</v>
       </c>
       <c r="N18">
-        <v>1.044066651998149</v>
+        <v>1.020764301381828</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03656853649065</v>
+        <v>0.9923784779511714</v>
       </c>
       <c r="D19">
-        <v>1.046380394020105</v>
+        <v>1.008570979919557</v>
       </c>
       <c r="E19">
-        <v>1.035526617527732</v>
+        <v>1.000736068080318</v>
       </c>
       <c r="F19">
-        <v>1.053983705134053</v>
+        <v>1.013684628369297</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037947240823331</v>
+        <v>1.047199651022374</v>
       </c>
       <c r="J19">
-        <v>1.042640565150195</v>
+        <v>1.019596210613159</v>
       </c>
       <c r="K19">
-        <v>1.049654875200382</v>
+        <v>1.022179630406241</v>
       </c>
       <c r="L19">
-        <v>1.03883786729908</v>
+        <v>1.014477632833962</v>
       </c>
       <c r="M19">
-        <v>1.057232924033623</v>
+        <v>1.027207955722886</v>
       </c>
       <c r="N19">
-        <v>1.044121234345252</v>
+        <v>1.02104415418155</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>1.036202008440794</v>
+        <v>0.9904366924954296</v>
       </c>
       <c r="D20">
-        <v>1.046033451766704</v>
+        <v>1.006833283360341</v>
       </c>
       <c r="E20">
-        <v>1.035215085863511</v>
+        <v>0.9991855602593409</v>
       </c>
       <c r="F20">
-        <v>1.053608796084331</v>
+        <v>1.011811505038023</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037871193103631</v>
+        <v>1.046600888618072</v>
       </c>
       <c r="J20">
-        <v>1.042396753508406</v>
+        <v>1.018341307071512</v>
       </c>
       <c r="K20">
-        <v>1.049372310353833</v>
+        <v>1.020757032567245</v>
       </c>
       <c r="L20">
-        <v>1.038591370745876</v>
+        <v>1.013242745741542</v>
       </c>
       <c r="M20">
-        <v>1.056921950446581</v>
+        <v>1.025649795002763</v>
       </c>
       <c r="N20">
-        <v>1.043877076462967</v>
+        <v>1.019787468532934</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035010243157902</v>
+        <v>0.9839860236384453</v>
       </c>
       <c r="D21">
-        <v>1.044905744517795</v>
+        <v>1.00106951521152</v>
       </c>
       <c r="E21">
-        <v>1.03420268525482</v>
+        <v>0.9940461792777286</v>
       </c>
       <c r="F21">
-        <v>1.05239017507723</v>
+        <v>1.005597686337388</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037621208516223</v>
+        <v>1.044591156874026</v>
       </c>
       <c r="J21">
-        <v>1.0416031731953</v>
+        <v>1.014168883466457</v>
       </c>
       <c r="K21">
-        <v>1.04845305127195</v>
+        <v>1.016030653589792</v>
       </c>
       <c r="L21">
-        <v>1.037789525138175</v>
+        <v>1.009141233408374</v>
       </c>
       <c r="M21">
-        <v>1.055910364714467</v>
+        <v>1.020473779244432</v>
       </c>
       <c r="N21">
-        <v>1.043082369174791</v>
+        <v>1.015609119607776</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034260818057464</v>
+        <v>0.9798185797143162</v>
       </c>
       <c r="D22">
-        <v>1.044196891363825</v>
+        <v>0.9973530964603292</v>
       </c>
       <c r="E22">
-        <v>1.033566471641514</v>
+        <v>0.9907351809913866</v>
       </c>
       <c r="F22">
-        <v>1.051624167168028</v>
+        <v>1.00159036365981</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037461929541651</v>
+        <v>1.043277248919076</v>
       </c>
       <c r="J22">
-        <v>1.041103509060375</v>
+        <v>1.011470841598443</v>
       </c>
       <c r="K22">
-        <v>1.047874606802403</v>
+        <v>1.01297717202558</v>
       </c>
       <c r="L22">
-        <v>1.037285020121827</v>
+        <v>1.006492437469904</v>
       </c>
       <c r="M22">
-        <v>1.055273895925932</v>
+        <v>1.017130380834149</v>
       </c>
       <c r="N22">
-        <v>1.042581995459482</v>
+        <v>1.01290724621084</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034658113521344</v>
+        <v>0.9820388139432387</v>
       </c>
       <c r="D23">
-        <v>1.044572650624188</v>
+        <v>0.9993323366590777</v>
       </c>
       <c r="E23">
-        <v>1.033903709805638</v>
+        <v>0.992498234185105</v>
       </c>
       <c r="F23">
-        <v>1.05203022468192</v>
+        <v>1.003724600744893</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037546565675692</v>
+        <v>1.043978676321803</v>
       </c>
       <c r="J23">
-        <v>1.041368457623573</v>
+        <v>1.012908451356959</v>
       </c>
       <c r="K23">
-        <v>1.04818129566606</v>
+        <v>1.014603913235256</v>
       </c>
       <c r="L23">
-        <v>1.037552501167807</v>
+        <v>1.00790348646829</v>
       </c>
       <c r="M23">
-        <v>1.055611342206391</v>
+        <v>1.01891152194742</v>
       </c>
       <c r="N23">
-        <v>1.042847320280031</v>
+        <v>1.014346897540109</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036221986627302</v>
+        <v>0.9905430343162764</v>
       </c>
       <c r="D24">
-        <v>1.046052360991747</v>
+        <v>1.006928416042107</v>
       </c>
       <c r="E24">
-        <v>1.035232064343122</v>
+        <v>0.9992704322949986</v>
       </c>
       <c r="F24">
-        <v>1.05362922960618</v>
+        <v>1.011914054887513</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037875348449203</v>
+        <v>1.046633757428898</v>
       </c>
       <c r="J24">
-        <v>1.042410045968859</v>
+        <v>1.018410045966174</v>
       </c>
       <c r="K24">
-        <v>1.049387713885168</v>
+        <v>1.020834943664771</v>
       </c>
       <c r="L24">
-        <v>1.03860480780042</v>
+        <v>1.013310372084696</v>
       </c>
       <c r="M24">
-        <v>1.056938902273893</v>
+        <v>1.025735127627367</v>
       </c>
       <c r="N24">
-        <v>1.043890387800238</v>
+        <v>1.01985630504471</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03803628766208</v>
+        <v>0.9999638932848177</v>
       </c>
       <c r="D25">
-        <v>1.047770267258149</v>
+        <v>1.01537113218407</v>
       </c>
       <c r="E25">
-        <v>1.036774940316406</v>
+        <v>1.006808472925257</v>
       </c>
       <c r="F25">
-        <v>1.055485601813737</v>
+        <v>1.021013646800493</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038247714449618</v>
+        <v>1.049508050700698</v>
       </c>
       <c r="J25">
-        <v>1.043615662626397</v>
+        <v>1.024492472625952</v>
       </c>
       <c r="K25">
-        <v>1.05078564655299</v>
+        <v>1.027735426867732</v>
       </c>
       <c r="L25">
-        <v>1.039824408788658</v>
+        <v>1.019302007605725</v>
       </c>
       <c r="M25">
-        <v>1.058477523397512</v>
+        <v>1.033294281475139</v>
       </c>
       <c r="N25">
-        <v>1.045097716571717</v>
+        <v>1.02594736944801</v>
       </c>
     </row>
   </sheetData>
